--- a/data/pca/factorExposure/factorExposure_2011-11-29.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-11-29.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +717,48 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01096542808568996</v>
+        <v>0.01207096364875563</v>
       </c>
       <c r="C2">
-        <v>-0.03129486091703049</v>
+        <v>0.02228025403408492</v>
       </c>
       <c r="D2">
-        <v>0.01990651796991465</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.02441249172589317</v>
+      </c>
+      <c r="E2">
+        <v>-0.01142269489021835</v>
+      </c>
+      <c r="F2">
+        <v>-0.03012446670508312</v>
+      </c>
+      <c r="G2">
+        <v>-0.001446459671253838</v>
+      </c>
+      <c r="H2">
+        <v>-0.0216290746581866</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +769,48 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.07489060664550716</v>
+        <v>0.0892429219061341</v>
       </c>
       <c r="C4">
-        <v>-0.06172574438500298</v>
+        <v>0.03653127984721238</v>
       </c>
       <c r="D4">
-        <v>0.07106357259400436</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.07102823896504198</v>
+      </c>
+      <c r="E4">
+        <v>-0.01002509703265487</v>
+      </c>
+      <c r="F4">
+        <v>-0.04012047385876949</v>
+      </c>
+      <c r="G4">
+        <v>-0.01113203220490065</v>
+      </c>
+      <c r="H4">
+        <v>0.03903541112806057</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.1096167994086427</v>
+        <v>0.124144611070352</v>
       </c>
       <c r="C6">
-        <v>-0.06366946334682971</v>
+        <v>0.04630429126429496</v>
       </c>
       <c r="D6">
-        <v>0.0002192568888825701</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.01323929345499407</v>
+      </c>
+      <c r="E6">
+        <v>0.02726068184629584</v>
+      </c>
+      <c r="F6">
+        <v>-0.04633886708063945</v>
+      </c>
+      <c r="G6">
+        <v>-0.008980126857335596</v>
+      </c>
+      <c r="H6">
+        <v>-0.1121936054794016</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.0532872993046427</v>
+        <v>0.06455192716025342</v>
       </c>
       <c r="C7">
-        <v>-0.03655028377300023</v>
+        <v>0.01703579521312707</v>
       </c>
       <c r="D7">
-        <v>0.03173084008514114</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.05112390238599997</v>
+      </c>
+      <c r="E7">
+        <v>-0.03328649797975177</v>
+      </c>
+      <c r="F7">
+        <v>-0.04287440090379599</v>
+      </c>
+      <c r="G7">
+        <v>0.02562742874178435</v>
+      </c>
+      <c r="H7">
+        <v>0.01679326259509159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.04022401845867694</v>
+        <v>0.0448869115279391</v>
       </c>
       <c r="C8">
-        <v>-0.01663149990752017</v>
+        <v>0.01078547875359482</v>
       </c>
       <c r="D8">
-        <v>0.06337706137988015</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.02500952175509707</v>
+      </c>
+      <c r="E8">
+        <v>-0.01150829152635789</v>
+      </c>
+      <c r="F8">
+        <v>-0.07018310982056042</v>
+      </c>
+      <c r="G8">
+        <v>-0.07262660710655827</v>
+      </c>
+      <c r="H8">
+        <v>-0.02338539859497753</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.06991827282641881</v>
+        <v>0.08011363568679526</v>
       </c>
       <c r="C9">
-        <v>-0.04530827684720837</v>
+        <v>0.02188523000910155</v>
       </c>
       <c r="D9">
-        <v>0.06769498382197137</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.06454622298958959</v>
+      </c>
+      <c r="E9">
+        <v>-0.02339378684696917</v>
+      </c>
+      <c r="F9">
+        <v>-0.0337593605590801</v>
+      </c>
+      <c r="G9">
+        <v>-0.02599481000625628</v>
+      </c>
+      <c r="H9">
+        <v>0.03897424573063867</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.02512940883910848</v>
+        <v>0.04537826545069248</v>
       </c>
       <c r="C10">
-        <v>-0.02053295610307814</v>
+        <v>0.07586835891326653</v>
       </c>
       <c r="D10">
-        <v>-0.1713204391298417</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.1726682970018264</v>
+      </c>
+      <c r="E10">
+        <v>-0.04043706228413636</v>
+      </c>
+      <c r="F10">
+        <v>-0.05008588930761708</v>
+      </c>
+      <c r="G10">
+        <v>0.03680088487090311</v>
+      </c>
+      <c r="H10">
+        <v>-0.04818065235810659</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.06816933706598489</v>
+        <v>0.07387645309962064</v>
       </c>
       <c r="C11">
-        <v>-0.04391773187821431</v>
+        <v>0.01446420710555184</v>
       </c>
       <c r="D11">
-        <v>0.05118172006625402</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.06513302780429175</v>
+      </c>
+      <c r="E11">
+        <v>0.0008299229823939164</v>
+      </c>
+      <c r="F11">
+        <v>-0.03382267098934962</v>
+      </c>
+      <c r="G11">
+        <v>-0.05166328296861359</v>
+      </c>
+      <c r="H11">
+        <v>0.05875436664347129</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.05757766688520612</v>
+        <v>0.06765481667586708</v>
       </c>
       <c r="C12">
-        <v>-0.05306883217661065</v>
+        <v>0.02798699247319229</v>
       </c>
       <c r="D12">
-        <v>0.04475763254061242</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.05361664267904962</v>
+      </c>
+      <c r="E12">
+        <v>-0.01175670684993483</v>
+      </c>
+      <c r="F12">
+        <v>-0.02227746069817862</v>
+      </c>
+      <c r="G12">
+        <v>-0.02751710301722977</v>
+      </c>
+      <c r="H12">
+        <v>0.02664543680244332</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.06848340538619019</v>
+        <v>0.07053000894855525</v>
       </c>
       <c r="C13">
-        <v>-0.05014941683834975</v>
+        <v>0.02559072325858978</v>
       </c>
       <c r="D13">
-        <v>0.03849452267081531</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.04104357323986235</v>
+      </c>
+      <c r="E13">
+        <v>-0.00520991965571588</v>
+      </c>
+      <c r="F13">
+        <v>-0.02456516264042134</v>
+      </c>
+      <c r="G13">
+        <v>-0.02386205916437358</v>
+      </c>
+      <c r="H13">
+        <v>0.04943604541669735</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.02997149836767678</v>
+        <v>0.03952855656848655</v>
       </c>
       <c r="C14">
-        <v>-0.0303676678334027</v>
+        <v>0.02592979261595036</v>
       </c>
       <c r="D14">
-        <v>-0.006964953651561366</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.01504910448390513</v>
+      </c>
+      <c r="E14">
+        <v>-0.02516323778809463</v>
+      </c>
+      <c r="F14">
+        <v>-0.01546110043577091</v>
+      </c>
+      <c r="G14">
+        <v>-0.01884111102130617</v>
+      </c>
+      <c r="H14">
+        <v>0.06155051325715618</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0.04082327066222274</v>
+        <v>0.04030820017014552</v>
       </c>
       <c r="C15">
-        <v>-0.01317759815068026</v>
+        <v>0.003865534735895394</v>
       </c>
       <c r="D15">
-        <v>0.02205985584836768</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.009727335481761117</v>
+      </c>
+      <c r="E15">
+        <v>-0.03472019448391539</v>
+      </c>
+      <c r="F15">
+        <v>-0.003483822327510777</v>
+      </c>
+      <c r="G15">
+        <v>-0.03055704452988555</v>
+      </c>
+      <c r="H15">
+        <v>0.02675813741308864</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.05693966877695228</v>
+        <v>0.06955685148004814</v>
       </c>
       <c r="C16">
-        <v>-0.04263563901273298</v>
+        <v>0.01888391575589311</v>
       </c>
       <c r="D16">
-        <v>0.05281839841513233</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.06550116043972488</v>
+      </c>
+      <c r="E16">
+        <v>-0.004580900253872984</v>
+      </c>
+      <c r="F16">
+        <v>-0.03014613851428519</v>
+      </c>
+      <c r="G16">
+        <v>-0.02424665738023228</v>
+      </c>
+      <c r="H16">
+        <v>0.04711326399181468</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,10 +1159,22 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1185,204 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.06376024314818469</v>
+        <v>0.06258297862381615</v>
       </c>
       <c r="C20">
-        <v>-0.02928801909400345</v>
+        <v>0.0046350010799192</v>
       </c>
       <c r="D20">
-        <v>0.04368250834292755</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.03937535596935264</v>
+      </c>
+      <c r="E20">
+        <v>-0.005886224003592068</v>
+      </c>
+      <c r="F20">
+        <v>-0.02590255283758506</v>
+      </c>
+      <c r="G20">
+        <v>-0.0165261162658549</v>
+      </c>
+      <c r="H20">
+        <v>0.03827436940041565</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.0326113488954291</v>
+        <v>0.02940363999641235</v>
       </c>
       <c r="C21">
-        <v>-0.009286778712211164</v>
+        <v>-0.004266356836084051</v>
       </c>
       <c r="D21">
-        <v>0.01335007023077298</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.01987070155709203</v>
+      </c>
+      <c r="E21">
+        <v>-0.04006474182252788</v>
+      </c>
+      <c r="F21">
+        <v>0.01413834022379132</v>
+      </c>
+      <c r="G21">
+        <v>-0.003936712561030003</v>
+      </c>
+      <c r="H21">
+        <v>-0.04590193931789732</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.07753803744518457</v>
+        <v>0.069440986392715</v>
       </c>
       <c r="C22">
-        <v>-0.069149584007513</v>
+        <v>0.02119436701137886</v>
       </c>
       <c r="D22">
-        <v>0.1527549874589088</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.1136817405782446</v>
+      </c>
+      <c r="E22">
+        <v>-0.6096237167606674</v>
+      </c>
+      <c r="F22">
+        <v>0.05853515751871084</v>
+      </c>
+      <c r="G22">
+        <v>0.1722579199637085</v>
+      </c>
+      <c r="H22">
+        <v>-0.1233690741055785</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.07862606781542016</v>
+        <v>0.07038691530848026</v>
       </c>
       <c r="C23">
-        <v>-0.06762486907436444</v>
+        <v>0.01959917257543313</v>
       </c>
       <c r="D23">
-        <v>0.1540449723790402</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.1145832482433429</v>
+      </c>
+      <c r="E23">
+        <v>-0.6117152934445365</v>
+      </c>
+      <c r="F23">
+        <v>0.05788284058461626</v>
+      </c>
+      <c r="G23">
+        <v>0.1665606734332048</v>
+      </c>
+      <c r="H23">
+        <v>-0.1190267279139478</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.07403030409012258</v>
+        <v>0.07910158706775813</v>
       </c>
       <c r="C24">
-        <v>-0.05296442509331883</v>
+        <v>0.02193276479080038</v>
       </c>
       <c r="D24">
-        <v>0.05772505121656504</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.06376203069903655</v>
+      </c>
+      <c r="E24">
+        <v>-0.01244198895778924</v>
+      </c>
+      <c r="F24">
+        <v>-0.03723901360764434</v>
+      </c>
+      <c r="G24">
+        <v>-0.03981653163724477</v>
+      </c>
+      <c r="H24">
+        <v>0.02753662087364048</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.07248255602935677</v>
+        <v>0.07822821212112925</v>
       </c>
       <c r="C25">
-        <v>-0.05619120389526365</v>
+        <v>0.02744490677109983</v>
       </c>
       <c r="D25">
-        <v>0.06019110342998071</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.05677268282896496</v>
+      </c>
+      <c r="E25">
+        <v>-0.01406124458978099</v>
+      </c>
+      <c r="F25">
+        <v>-0.03230368868229651</v>
+      </c>
+      <c r="G25">
+        <v>-0.04783666157191783</v>
+      </c>
+      <c r="H25">
+        <v>0.03598249623193319</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.04461054254997102</v>
+        <v>0.04406125373292424</v>
       </c>
       <c r="C26">
-        <v>-0.01537814325630992</v>
+        <v>0.0004185256426050445</v>
       </c>
       <c r="D26">
-        <v>0.01118201920992031</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02261779061624398</v>
+      </c>
+      <c r="E26">
+        <v>-0.04136203879610933</v>
+      </c>
+      <c r="F26">
+        <v>-0.02915766809343488</v>
+      </c>
+      <c r="G26">
+        <v>-0.01879667301740578</v>
+      </c>
+      <c r="H26">
+        <v>0.04214942540235096</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.0372978899122566</v>
+        <v>0.06507788576786937</v>
       </c>
       <c r="C28">
-        <v>-0.05454210756145773</v>
+        <v>0.1368511866808947</v>
       </c>
       <c r="D28">
-        <v>-0.304189470900568</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.290227796593521</v>
+      </c>
+      <c r="E28">
+        <v>-0.04105868627747102</v>
+      </c>
+      <c r="F28">
+        <v>-0.05177676556804663</v>
+      </c>
+      <c r="G28">
+        <v>-0.02232817235455491</v>
+      </c>
+      <c r="H28">
+        <v>-0.0549273595541802</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.0444415256818867</v>
+        <v>0.04797354572838389</v>
       </c>
       <c r="C29">
-        <v>-0.04073283092890835</v>
+        <v>0.02900137820627438</v>
       </c>
       <c r="D29">
-        <v>0.001357297042378493</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.0165837573270873</v>
+      </c>
+      <c r="E29">
+        <v>-0.05487827827357696</v>
+      </c>
+      <c r="F29">
+        <v>-0.01482683111034431</v>
+      </c>
+      <c r="G29">
+        <v>-0.01017081116762949</v>
+      </c>
+      <c r="H29">
+        <v>0.0773977686449603</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1258621793464504</v>
+        <v>0.1249617705853598</v>
       </c>
       <c r="C30">
-        <v>-0.09773648771182554</v>
+        <v>0.05003450397778205</v>
       </c>
       <c r="D30">
-        <v>0.1104192078158084</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.08604016865647961</v>
+      </c>
+      <c r="E30">
+        <v>-0.05728038380303951</v>
+      </c>
+      <c r="F30">
+        <v>-0.01549311676097963</v>
+      </c>
+      <c r="G30">
+        <v>-0.06149576607919841</v>
+      </c>
+      <c r="H30">
+        <v>-0.05478526531194626</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.04725830300188961</v>
+        <v>0.04914946441286475</v>
       </c>
       <c r="C31">
-        <v>-0.0263352017240926</v>
+        <v>0.008509985482294233</v>
       </c>
       <c r="D31">
-        <v>0.02029966349194893</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.03512911670118574</v>
+      </c>
+      <c r="E31">
+        <v>-0.02221557858122074</v>
+      </c>
+      <c r="F31">
+        <v>-0.009971831769468045</v>
+      </c>
+      <c r="G31">
+        <v>-0.001372114560566245</v>
+      </c>
+      <c r="H31">
+        <v>0.07118581998420612</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.03360591016854553</v>
+        <v>0.03701355677292427</v>
       </c>
       <c r="C32">
-        <v>-0.02388294273469227</v>
+        <v>0.01998874574570542</v>
       </c>
       <c r="D32">
-        <v>0.03104258480943681</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.01343652349885597</v>
+      </c>
+      <c r="E32">
+        <v>-0.04665674253549042</v>
+      </c>
+      <c r="F32">
+        <v>0.002702338773643322</v>
+      </c>
+      <c r="G32">
+        <v>-0.05192678637431206</v>
+      </c>
+      <c r="H32">
+        <v>0.01146110210105282</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.08373395022671783</v>
+        <v>0.09356571283514317</v>
       </c>
       <c r="C33">
-        <v>-0.04628829649763467</v>
+        <v>0.01916650263933741</v>
       </c>
       <c r="D33">
-        <v>0.04634771538062616</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.05063979389063285</v>
+      </c>
+      <c r="E33">
+        <v>-0.01292431095545951</v>
+      </c>
+      <c r="F33">
+        <v>-0.001371975220977811</v>
+      </c>
+      <c r="G33">
+        <v>-0.01035048152990035</v>
+      </c>
+      <c r="H33">
+        <v>0.0623914809427971</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.05876036702504321</v>
+        <v>0.06534596903073808</v>
       </c>
       <c r="C34">
-        <v>-0.02898244684120904</v>
+        <v>0.00614533384755089</v>
       </c>
       <c r="D34">
-        <v>0.04849916338750632</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.0500021490293407</v>
+      </c>
+      <c r="E34">
+        <v>-0.00599779661052499</v>
+      </c>
+      <c r="F34">
+        <v>-0.02182151810460863</v>
+      </c>
+      <c r="G34">
+        <v>-0.03334976956214689</v>
+      </c>
+      <c r="H34">
+        <v>0.04574554653500421</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0.03586566267626442</v>
+        <v>0.03758965503487731</v>
       </c>
       <c r="C35">
-        <v>-0.01403391812088595</v>
+        <v>0.004897883586525164</v>
       </c>
       <c r="D35">
-        <v>0.02099725331871224</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.01745121370644272</v>
+      </c>
+      <c r="E35">
+        <v>-0.02367788454506164</v>
+      </c>
+      <c r="F35">
+        <v>0.01618970898567316</v>
+      </c>
+      <c r="G35">
+        <v>0.00386932557955006</v>
+      </c>
+      <c r="H35">
+        <v>0.03385389862932604</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.02525842378447831</v>
+        <v>0.02746390128045988</v>
       </c>
       <c r="C36">
-        <v>-0.02045375901407554</v>
+        <v>0.0106272809941912</v>
       </c>
       <c r="D36">
-        <v>0.01864739347699424</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.02137063285457739</v>
+      </c>
+      <c r="E36">
+        <v>-0.03158781576998322</v>
+      </c>
+      <c r="F36">
+        <v>-0.0265701442746471</v>
+      </c>
+      <c r="G36">
+        <v>-0.01105739126615066</v>
+      </c>
+      <c r="H36">
+        <v>0.0411425667729892</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.04880712390093849</v>
+        <v>0.0470565006611677</v>
       </c>
       <c r="C38">
-        <v>-0.008837610446017018</v>
+        <v>-0.005943306049745333</v>
       </c>
       <c r="D38">
-        <v>0.006556690304256519</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.0201852307624041</v>
+      </c>
+      <c r="E38">
+        <v>-0.04922623300455733</v>
+      </c>
+      <c r="F38">
+        <v>0.002014679350463754</v>
+      </c>
+      <c r="G38">
+        <v>-0.003941692278114383</v>
+      </c>
+      <c r="H38">
+        <v>0.01849222699876942</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.09000303759723827</v>
+        <v>0.101308388239868</v>
       </c>
       <c r="C39">
-        <v>-0.07321778126859457</v>
+        <v>0.04229229771442609</v>
       </c>
       <c r="D39">
-        <v>0.04620266594791905</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.06507181817022843</v>
+      </c>
+      <c r="E39">
+        <v>-0.00298795212512187</v>
+      </c>
+      <c r="F39">
+        <v>-0.0007237354862620217</v>
+      </c>
+      <c r="G39">
+        <v>-0.05099962173101086</v>
+      </c>
+      <c r="H39">
+        <v>0.00873023456808583</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.08031915187021614</v>
+        <v>0.06207941941238911</v>
       </c>
       <c r="C40">
-        <v>-0.0413640358282608</v>
+        <v>0.0001907348684462132</v>
       </c>
       <c r="D40">
-        <v>0.0116590382096803</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03537675394663451</v>
+      </c>
+      <c r="E40">
+        <v>-0.03565086765172356</v>
+      </c>
+      <c r="F40">
+        <v>0.03641274199165523</v>
+      </c>
+      <c r="G40">
+        <v>-0.05721225719765493</v>
+      </c>
+      <c r="H40">
+        <v>-0.09520749602255692</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.04741651088317084</v>
+        <v>0.0481601531480263</v>
       </c>
       <c r="C41">
-        <v>-0.02137322732895635</v>
+        <v>0.001998425318387456</v>
       </c>
       <c r="D41">
-        <v>0.0337306242040387</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.03426539644699477</v>
+      </c>
+      <c r="E41">
+        <v>-0.00128588040349186</v>
+      </c>
+      <c r="F41">
+        <v>0.01321623183340184</v>
+      </c>
+      <c r="G41">
+        <v>-0.008525185088073815</v>
+      </c>
+      <c r="H41">
+        <v>0.02963428489824449</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.05485419225086053</v>
+        <v>0.06101987941553148</v>
       </c>
       <c r="C43">
-        <v>-0.03247382072085672</v>
+        <v>0.01559927686552687</v>
       </c>
       <c r="D43">
-        <v>0.007924550767888597</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.03206017809601149</v>
+      </c>
+      <c r="E43">
+        <v>-0.01826174114384154</v>
+      </c>
+      <c r="F43">
+        <v>-0.01385653098487486</v>
+      </c>
+      <c r="G43">
+        <v>0.01166820234433858</v>
+      </c>
+      <c r="H43">
+        <v>0.0672191522293013</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.09901305097792849</v>
+        <v>0.09388311359099639</v>
       </c>
       <c r="C44">
-        <v>-0.03724461333549371</v>
+        <v>0.003136328161112124</v>
       </c>
       <c r="D44">
-        <v>0.05129272283332367</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.05179982321014538</v>
+      </c>
+      <c r="E44">
+        <v>-0.07080460930904764</v>
+      </c>
+      <c r="F44">
+        <v>-0.07724892970298461</v>
+      </c>
+      <c r="G44">
+        <v>-0.06737232640085067</v>
+      </c>
+      <c r="H44">
+        <v>0.02797632524153757</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1861,178 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.02554646181646766</v>
+        <v>0.03550057647541546</v>
       </c>
       <c r="C46">
-        <v>-0.02424031793176776</v>
+        <v>0.01426342024238178</v>
       </c>
       <c r="D46">
-        <v>0.03452806646150196</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.04067880150995396</v>
+      </c>
+      <c r="E46">
+        <v>-0.02957418538472613</v>
+      </c>
+      <c r="F46">
+        <v>-0.0161642593095939</v>
+      </c>
+      <c r="G46">
+        <v>-0.0004172868081335578</v>
+      </c>
+      <c r="H46">
+        <v>0.03444851661935933</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.03217217959498442</v>
+        <v>0.04101280501803165</v>
       </c>
       <c r="C47">
-        <v>-0.02639960668879582</v>
+        <v>0.02114287766973488</v>
       </c>
       <c r="D47">
-        <v>2.869400553023125e-05</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.01083681408264123</v>
+      </c>
+      <c r="E47">
+        <v>-0.04016591765852134</v>
+      </c>
+      <c r="F47">
+        <v>0.007392796356228621</v>
+      </c>
+      <c r="G47">
+        <v>0.02895975831899837</v>
+      </c>
+      <c r="H47">
+        <v>0.03418702412469132</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.03622042959167884</v>
+        <v>0.039768225584031</v>
       </c>
       <c r="C48">
-        <v>-0.02802284954872266</v>
+        <v>0.01487340108546409</v>
       </c>
       <c r="D48">
-        <v>0.02761196043456261</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.02142772205195842</v>
+      </c>
+      <c r="E48">
+        <v>-0.03896984044731719</v>
+      </c>
+      <c r="F48">
+        <v>-0.0102430513164355</v>
+      </c>
+      <c r="G48">
+        <v>-0.02350759438072833</v>
+      </c>
+      <c r="H48">
+        <v>0.02179546658625045</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1607127751469844</v>
+        <v>0.1987627670327755</v>
       </c>
       <c r="C49">
-        <v>-0.05358137946489684</v>
+        <v>0.03552839097423945</v>
       </c>
       <c r="D49">
-        <v>0.000921381969200417</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.0290371853486315</v>
+      </c>
+      <c r="E49">
+        <v>0.1671085625289428</v>
+      </c>
+      <c r="F49">
+        <v>-0.04281400925287699</v>
+      </c>
+      <c r="G49">
+        <v>0.1597464432215933</v>
+      </c>
+      <c r="H49">
+        <v>-0.2055294868024018</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.04286030068430582</v>
+        <v>0.04544294440287656</v>
       </c>
       <c r="C50">
-        <v>-0.02728697389386965</v>
+        <v>0.01003150516374676</v>
       </c>
       <c r="D50">
-        <v>0.0366248303802249</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.04028680097625757</v>
+      </c>
+      <c r="E50">
+        <v>-0.03174093057016761</v>
+      </c>
+      <c r="F50">
+        <v>-0.004378421081287921</v>
+      </c>
+      <c r="G50">
+        <v>-0.001954238989946575</v>
+      </c>
+      <c r="H50">
+        <v>0.07895872238097212</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.02464551582047073</v>
+        <v>0.03344238530473254</v>
       </c>
       <c r="C51">
-        <v>-0.005981422391678259</v>
+        <v>0.005070602798529241</v>
       </c>
       <c r="D51">
-        <v>-0.0007832178574886362</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.003625627677446433</v>
+      </c>
+      <c r="E51">
+        <v>-0.01154755654025525</v>
+      </c>
+      <c r="F51">
+        <v>-0.01084997048972619</v>
+      </c>
+      <c r="G51">
+        <v>0.01753482425143177</v>
+      </c>
+      <c r="H51">
+        <v>-0.02137187350145856</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1519554219476464</v>
+        <v>0.1606451228408022</v>
       </c>
       <c r="C53">
-        <v>-0.08496886203761879</v>
+        <v>0.05117104118290267</v>
       </c>
       <c r="D53">
-        <v>-0.01011027602613446</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.02863803664376116</v>
+      </c>
+      <c r="E53">
+        <v>0.03127943238668245</v>
+      </c>
+      <c r="F53">
+        <v>-0.001190652061179408</v>
+      </c>
+      <c r="G53">
+        <v>-0.0181126479199029</v>
+      </c>
+      <c r="H53">
+        <v>0.2047756167443927</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.05757952434896876</v>
+        <v>0.05782133857374101</v>
       </c>
       <c r="C54">
-        <v>-0.03114456961740397</v>
+        <v>0.01621481825726778</v>
       </c>
       <c r="D54">
-        <v>0.01973946390805752</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.01733842971413996</v>
+      </c>
+      <c r="E54">
+        <v>-0.0527071614742646</v>
+      </c>
+      <c r="F54">
+        <v>-0.01600722908665277</v>
+      </c>
+      <c r="G54">
+        <v>-0.05811300572993191</v>
+      </c>
+      <c r="H54">
+        <v>0.03613050736510363</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.101087772148157</v>
+        <v>0.1028186580862914</v>
       </c>
       <c r="C55">
-        <v>-0.05834842171218427</v>
+        <v>0.03037846939574199</v>
       </c>
       <c r="D55">
-        <v>0.01115907305018395</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.03207324160430921</v>
+      </c>
+      <c r="E55">
+        <v>0.0001716969929396013</v>
+      </c>
+      <c r="F55">
+        <v>-0.01627579063770406</v>
+      </c>
+      <c r="G55">
+        <v>-0.02928874541292329</v>
+      </c>
+      <c r="H55">
+        <v>0.1573076246787818</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1463782436689323</v>
+        <v>0.1552284188423811</v>
       </c>
       <c r="C56">
-        <v>-0.08832690021296387</v>
+        <v>0.04871827653790123</v>
       </c>
       <c r="D56">
-        <v>-0.003673264060615777</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.04651453231328417</v>
+      </c>
+      <c r="E56">
+        <v>0.01465055006479653</v>
+      </c>
+      <c r="F56">
+        <v>-0.0231818232643136</v>
+      </c>
+      <c r="G56">
+        <v>-0.02860522983596579</v>
+      </c>
+      <c r="H56">
+        <v>0.2103082831767184</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,542 +2173,1010 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1305314670614831</v>
+        <v>0.09851364511649813</v>
       </c>
       <c r="C58">
-        <v>0.01694213962781678</v>
+        <v>-0.06726626458423918</v>
       </c>
       <c r="D58">
-        <v>0.05342111934082185</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.02283992480674544</v>
+      </c>
+      <c r="E58">
+        <v>-0.1243190860088786</v>
+      </c>
+      <c r="F58">
+        <v>-0.02817866344042221</v>
+      </c>
+      <c r="G58">
+        <v>0.07780862489144766</v>
+      </c>
+      <c r="H58">
+        <v>-0.2003154909997282</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1145678639399524</v>
+        <v>0.143850545859578</v>
       </c>
       <c r="C59">
-        <v>-0.07175535178609105</v>
+        <v>0.1522573650215231</v>
       </c>
       <c r="D59">
-        <v>-0.4055300533367838</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.3432603543248693</v>
+      </c>
+      <c r="E59">
+        <v>-0.03837349269901601</v>
+      </c>
+      <c r="F59">
+        <v>-0.002351969359404346</v>
+      </c>
+      <c r="G59">
+        <v>-0.004426724682571438</v>
+      </c>
+      <c r="H59">
+        <v>0.006727523946729787</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2045238472929043</v>
+        <v>0.2377269364057447</v>
       </c>
       <c r="C60">
-        <v>-0.1023740778806919</v>
+        <v>0.06382728409827641</v>
       </c>
       <c r="D60">
-        <v>0.00720822619574515</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.05147929214724745</v>
+      </c>
+      <c r="E60">
+        <v>0.1139510130924349</v>
+      </c>
+      <c r="F60">
+        <v>-0.04790364038391209</v>
+      </c>
+      <c r="G60">
+        <v>0.04195092269766641</v>
+      </c>
+      <c r="H60">
+        <v>-0.1309708910010486</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.07819079840722691</v>
+        <v>0.08568835520195157</v>
       </c>
       <c r="C61">
-        <v>-0.04868293486947884</v>
+        <v>0.02554909312390666</v>
       </c>
       <c r="D61">
-        <v>0.03030610013611771</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.04454070271992364</v>
+      </c>
+      <c r="E61">
+        <v>-0.007758744565955116</v>
+      </c>
+      <c r="F61">
+        <v>-0.01176195346701547</v>
+      </c>
+      <c r="G61">
+        <v>-0.03719386864546848</v>
+      </c>
+      <c r="H61">
+        <v>0.05732274267974619</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>0.130348265894167</v>
+        <v>0.1355374302739675</v>
       </c>
       <c r="C62">
-        <v>-0.05822851479041279</v>
+        <v>0.02093421428053773</v>
       </c>
       <c r="D62">
-        <v>-0.004140320662230652</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.04511022899720595</v>
+      </c>
+      <c r="E62">
+        <v>0.04635833165285842</v>
+      </c>
+      <c r="F62">
+        <v>0.01566547726031906</v>
+      </c>
+      <c r="G62">
+        <v>-0.05402601440709467</v>
+      </c>
+      <c r="H62">
+        <v>0.2070438868892892</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.04997667917490489</v>
+        <v>0.04842402037943179</v>
       </c>
       <c r="C63">
-        <v>-0.02500066426067328</v>
+        <v>0.01049006350962834</v>
       </c>
       <c r="D63">
-        <v>0.0274662235883399</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.02341801525030219</v>
+      </c>
+      <c r="E63">
+        <v>-0.04159447624730622</v>
+      </c>
+      <c r="F63">
+        <v>0.0004830095087505443</v>
+      </c>
+      <c r="G63">
+        <v>-0.03289050314127687</v>
+      </c>
+      <c r="H63">
+        <v>0.0335846482460606</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1067026243532304</v>
+        <v>0.1109805142278584</v>
       </c>
       <c r="C64">
-        <v>-0.04490602690666464</v>
+        <v>0.0214170878194253</v>
       </c>
       <c r="D64">
-        <v>0.01797442239238084</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.02807993762822444</v>
+      </c>
+      <c r="E64">
+        <v>-0.04006589694387753</v>
+      </c>
+      <c r="F64">
+        <v>-0.04673669228847711</v>
+      </c>
+      <c r="G64">
+        <v>-0.06545660339937882</v>
+      </c>
+      <c r="H64">
+        <v>0.02141433712691657</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1257308180386198</v>
+        <v>0.1301265105428393</v>
       </c>
       <c r="C65">
-        <v>-0.07084949749264781</v>
+        <v>0.04891708981405785</v>
       </c>
       <c r="D65">
-        <v>0.008994804034063076</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.01754817839503735</v>
+      </c>
+      <c r="E65">
+        <v>0.008091936201732245</v>
+      </c>
+      <c r="F65">
+        <v>-0.03287537976681561</v>
+      </c>
+      <c r="G65">
+        <v>-0.03237456351632918</v>
+      </c>
+      <c r="H65">
+        <v>-0.135241222225773</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1474056297128439</v>
+        <v>0.1521319133558254</v>
       </c>
       <c r="C66">
-        <v>-0.08528218165511371</v>
+        <v>0.0333399584432507</v>
       </c>
       <c r="D66">
-        <v>0.09169651718789498</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1025358258735795</v>
+      </c>
+      <c r="E66">
+        <v>0.02513784625329649</v>
+      </c>
+      <c r="F66">
+        <v>-0.00629574308296851</v>
+      </c>
+      <c r="G66">
+        <v>-0.07888562624185251</v>
+      </c>
+      <c r="H66">
+        <v>0.06698377036265207</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.07807315453326694</v>
+        <v>0.08644246393337655</v>
       </c>
       <c r="C67">
-        <v>-0.01699161094552014</v>
+        <v>-0.0006989067466825884</v>
       </c>
       <c r="D67">
-        <v>0.01376530098702467</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.03279634875534111</v>
+      </c>
+      <c r="E67">
+        <v>-0.02144898348797608</v>
+      </c>
+      <c r="F67">
+        <v>-0.01387984575294851</v>
+      </c>
+      <c r="G67">
+        <v>0.01158969345579182</v>
+      </c>
+      <c r="H67">
+        <v>0.01962643949144655</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.04903738007871551</v>
+        <v>0.05981817827477053</v>
       </c>
       <c r="C68">
-        <v>-0.04165669151116992</v>
+        <v>0.1069601078247134</v>
       </c>
       <c r="D68">
-        <v>-0.2597364440023008</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.2528311435040093</v>
+      </c>
+      <c r="E68">
+        <v>-0.04821588487280516</v>
+      </c>
+      <c r="F68">
+        <v>-0.0133018816625618</v>
+      </c>
+      <c r="G68">
+        <v>-0.001120360870755513</v>
+      </c>
+      <c r="H68">
+        <v>0.01856903945124923</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.05371223106057272</v>
+        <v>0.05244568103956871</v>
       </c>
       <c r="C69">
-        <v>-0.02451271177668367</v>
+        <v>0.006195818523058227</v>
       </c>
       <c r="D69">
-        <v>0.02008902727611996</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.02048842692225471</v>
+      </c>
+      <c r="E69">
+        <v>-0.02415690236173111</v>
+      </c>
+      <c r="F69">
+        <v>0.01163258949756761</v>
+      </c>
+      <c r="G69">
+        <v>-0.001265770423150326</v>
+      </c>
+      <c r="H69">
+        <v>0.04607004071069531</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>0.005587248835445219</v>
+        <v>0.03023173891392272</v>
       </c>
       <c r="C70">
-        <v>0.002632047666679114</v>
+        <v>0.004226258828907476</v>
       </c>
       <c r="D70">
-        <v>-0.01435476779289716</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.007290002313942283</v>
+      </c>
+      <c r="E70">
+        <v>0.02418073699286745</v>
+      </c>
+      <c r="F70">
+        <v>0.007272882533991508</v>
+      </c>
+      <c r="G70">
+        <v>0.02856875533475886</v>
+      </c>
+      <c r="H70">
+        <v>-0.03250805544479368</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.04665671667994799</v>
+        <v>0.06536540484920275</v>
       </c>
       <c r="C71">
-        <v>-0.03851932229807677</v>
+        <v>0.1188613493408235</v>
       </c>
       <c r="D71">
-        <v>-0.2907972003966272</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.2802844302341406</v>
+      </c>
+      <c r="E71">
+        <v>-0.04866889183590903</v>
+      </c>
+      <c r="F71">
+        <v>-0.03868781106544877</v>
+      </c>
+      <c r="G71">
+        <v>-0.00113148052649893</v>
+      </c>
+      <c r="H71">
+        <v>0.01346123379920315</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1386994806482665</v>
+        <v>0.1424224701802312</v>
       </c>
       <c r="C72">
-        <v>-0.06518293217145812</v>
+        <v>0.03351964760747854</v>
       </c>
       <c r="D72">
-        <v>-0.01709756948548915</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.006644017873674025</v>
+      </c>
+      <c r="E72">
+        <v>0.04763939832420312</v>
+      </c>
+      <c r="F72">
+        <v>0.1606059228054594</v>
+      </c>
+      <c r="G72">
+        <v>-0.1085085142859903</v>
+      </c>
+      <c r="H72">
+        <v>-0.009875260508026505</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2822281598780149</v>
+        <v>0.2861632360582705</v>
       </c>
       <c r="C73">
-        <v>-0.100530555228387</v>
+        <v>0.0131575640423657</v>
       </c>
       <c r="D73">
-        <v>0.03825759175571269</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.09597445211831396</v>
+      </c>
+      <c r="E73">
+        <v>0.2586031430421307</v>
+      </c>
+      <c r="F73">
+        <v>-0.06711473667689785</v>
+      </c>
+      <c r="G73">
+        <v>0.2774626076612635</v>
+      </c>
+      <c r="H73">
+        <v>-0.3932439919851776</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.07876021185689833</v>
+        <v>0.08981092941010287</v>
       </c>
       <c r="C74">
-        <v>-0.07594244870538835</v>
+        <v>0.05054389803459686</v>
       </c>
       <c r="D74">
-        <v>0.004018148472561672</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.04401190863821958</v>
+      </c>
+      <c r="E74">
+        <v>0.005599922051712248</v>
+      </c>
+      <c r="F74">
+        <v>0.0003260754782857823</v>
+      </c>
+      <c r="G74">
+        <v>0.02040996830027641</v>
+      </c>
+      <c r="H74">
+        <v>0.1375968797776056</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.0999300258252751</v>
+        <v>0.1022549220915896</v>
       </c>
       <c r="C75">
-        <v>-0.05295798245052015</v>
+        <v>0.02033341583601501</v>
       </c>
       <c r="D75">
-        <v>0.00602361927546514</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.02650393422980149</v>
+      </c>
+      <c r="E75">
+        <v>0.0003106363672220688</v>
+      </c>
+      <c r="F75">
+        <v>-0.0002540928489980762</v>
+      </c>
+      <c r="G75">
+        <v>0.0004354218954879633</v>
+      </c>
+      <c r="H75">
+        <v>0.0995841406635127</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1270691396588367</v>
+        <v>0.1389076997356573</v>
       </c>
       <c r="C76">
-        <v>-0.0745508056191687</v>
+        <v>0.04015067531012207</v>
       </c>
       <c r="D76">
-        <v>0.02563989315334275</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.05756598903349024</v>
+      </c>
+      <c r="E76">
+        <v>-0.01032903974945011</v>
+      </c>
+      <c r="F76">
+        <v>-0.03077431718863378</v>
+      </c>
+      <c r="G76">
+        <v>-0.03191649371036773</v>
+      </c>
+      <c r="H76">
+        <v>0.2311777665657801</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1182631144171956</v>
+        <v>0.101334208951228</v>
       </c>
       <c r="C77">
-        <v>-0.04069036828892424</v>
+        <v>-0.006807337473983312</v>
       </c>
       <c r="D77">
-        <v>0.09002080746070328</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.04565029656575935</v>
+      </c>
+      <c r="E77">
+        <v>-0.03798735183981967</v>
+      </c>
+      <c r="F77">
+        <v>-0.07091707305136875</v>
+      </c>
+      <c r="G77">
+        <v>-0.7848598919334246</v>
+      </c>
+      <c r="H77">
+        <v>-0.373054522674042</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.1062591285313856</v>
+        <v>0.1530409141806853</v>
       </c>
       <c r="C78">
-        <v>-0.04545074068123214</v>
+        <v>0.03517272808521742</v>
       </c>
       <c r="D78">
-        <v>0.08795433682373814</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.07971046654705602</v>
+      </c>
+      <c r="E78">
+        <v>-0.05848429816340867</v>
+      </c>
+      <c r="F78">
+        <v>-0.05459808304788599</v>
+      </c>
+      <c r="G78">
+        <v>-0.03576377056200566</v>
+      </c>
+      <c r="H78">
+        <v>-0.08071325772793436</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1407817196424754</v>
+        <v>0.1446360712647547</v>
       </c>
       <c r="C79">
-        <v>-0.07466127114657921</v>
+        <v>0.03227825202489845</v>
       </c>
       <c r="D79">
-        <v>0.02075157835728715</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.04797798930216278</v>
+      </c>
+      <c r="E79">
+        <v>0.01568645106352641</v>
+      </c>
+      <c r="F79">
+        <v>-0.01680884481196621</v>
+      </c>
+      <c r="G79">
+        <v>-0.03183097911745158</v>
+      </c>
+      <c r="H79">
+        <v>0.1710859844295572</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.04173760671001233</v>
+        <v>0.04328198138802661</v>
       </c>
       <c r="C80">
-        <v>-0.02095849587471103</v>
+        <v>0.01100098001556457</v>
       </c>
       <c r="D80">
-        <v>0.0263122712632376</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.01258381601537262</v>
+      </c>
+      <c r="E80">
+        <v>0.03969258337812598</v>
+      </c>
+      <c r="F80">
+        <v>-0.006304616969362908</v>
+      </c>
+      <c r="G80">
+        <v>0.01363031444445597</v>
+      </c>
+      <c r="H80">
+        <v>0.03287507230923315</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1225817212602754</v>
+        <v>0.1255342302789058</v>
       </c>
       <c r="C81">
-        <v>-0.07409281628322763</v>
+        <v>0.03885797914464928</v>
       </c>
       <c r="D81">
-        <v>0.02025504136556209</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.03345645861673367</v>
+      </c>
+      <c r="E81">
+        <v>-0.006117281416009424</v>
+      </c>
+      <c r="F81">
+        <v>-0.01969914838987298</v>
+      </c>
+      <c r="G81">
+        <v>-0.003815852452684106</v>
+      </c>
+      <c r="H81">
+        <v>0.1499445181945381</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.1306536762145694</v>
+        <v>0.1305615099167203</v>
       </c>
       <c r="C82">
-        <v>-0.0737916857414566</v>
+        <v>0.03786063346463521</v>
       </c>
       <c r="D82">
-        <v>0.001224339742761874</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.03889099550519901</v>
+      </c>
+      <c r="E82">
+        <v>0.02369039526747288</v>
+      </c>
+      <c r="F82">
+        <v>-0.04016713839181598</v>
+      </c>
+      <c r="G82">
+        <v>-0.01893081164537542</v>
+      </c>
+      <c r="H82">
+        <v>0.2274120278047639</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.06423730246072271</v>
+        <v>0.08124358187342114</v>
       </c>
       <c r="C83">
-        <v>0.01798367581565462</v>
+        <v>-0.02772954159680322</v>
       </c>
       <c r="D83">
-        <v>0.01879536472875644</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.01546058406925906</v>
+      </c>
+      <c r="E83">
+        <v>-0.01546592212198307</v>
+      </c>
+      <c r="F83">
+        <v>-0.03374888866217288</v>
+      </c>
+      <c r="G83">
+        <v>0.04832650364604089</v>
+      </c>
+      <c r="H83">
+        <v>-0.03689832125389352</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0.02852001765428015</v>
+        <v>0.0331468259595039</v>
       </c>
       <c r="C84">
-        <v>-0.03423848849529652</v>
+        <v>0.01629293136432847</v>
       </c>
       <c r="D84">
-        <v>0.03356691005129634</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.04166299976478732</v>
+      </c>
+      <c r="E84">
+        <v>-0.02005882022529793</v>
+      </c>
+      <c r="F84">
+        <v>0.03552661439647611</v>
+      </c>
+      <c r="G84">
+        <v>0.026739266904402</v>
+      </c>
+      <c r="H84">
+        <v>0.0196681176522028</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1167292584646672</v>
+        <v>0.1224347390975518</v>
       </c>
       <c r="C85">
-        <v>-0.04434967205956455</v>
+        <v>0.01306938302503171</v>
       </c>
       <c r="D85">
-        <v>0.04977261318352949</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.04175819621818355</v>
+      </c>
+      <c r="E85">
+        <v>-0.0172296879009608</v>
+      </c>
+      <c r="F85">
+        <v>-0.03514343395105102</v>
+      </c>
+      <c r="G85">
+        <v>-0.0006535755220887436</v>
+      </c>
+      <c r="H85">
+        <v>0.151271826522473</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.05176344142968747</v>
+        <v>0.05563388270986722</v>
       </c>
       <c r="C86">
-        <v>-0.02679693807069433</v>
+        <v>0.007818509505203937</v>
       </c>
       <c r="D86">
-        <v>0.06599111429320234</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.03389681049384458</v>
+      </c>
+      <c r="E86">
+        <v>-0.04101815020131711</v>
+      </c>
+      <c r="F86">
+        <v>-0.02550862185257337</v>
+      </c>
+      <c r="G86">
+        <v>0.03678506661265653</v>
+      </c>
+      <c r="H86">
+        <v>-0.0514195880039973</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.1236547740749854</v>
+        <v>0.1265733844123219</v>
       </c>
       <c r="C87">
-        <v>-0.08300718148420987</v>
+        <v>0.03298004699222284</v>
       </c>
       <c r="D87">
-        <v>0.06513512241388415</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.07139235810241129</v>
+      </c>
+      <c r="E87">
+        <v>-0.02026926713443113</v>
+      </c>
+      <c r="F87">
+        <v>-0.02317651810903078</v>
+      </c>
+      <c r="G87">
+        <v>-0.1469737293610428</v>
+      </c>
+      <c r="H87">
+        <v>-0.08208859918449819</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.05382138841065997</v>
+        <v>0.06350189752282273</v>
       </c>
       <c r="C88">
-        <v>-0.03684799878474149</v>
+        <v>0.02019993765652287</v>
       </c>
       <c r="D88">
-        <v>0.02427997948079522</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.04245530678492378</v>
+      </c>
+      <c r="E88">
+        <v>-0.00251438042813329</v>
+      </c>
+      <c r="F88">
+        <v>-0.02206143806311005</v>
+      </c>
+      <c r="G88">
+        <v>-0.01090525804193426</v>
+      </c>
+      <c r="H88">
+        <v>0.04482396353617472</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.07615774218767082</v>
+        <v>0.1031808888353296</v>
       </c>
       <c r="C89">
-        <v>-0.0625988525699086</v>
+        <v>0.1547947639922724</v>
       </c>
       <c r="D89">
-        <v>-0.3189843681823653</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.3284172436218143</v>
+      </c>
+      <c r="E89">
+        <v>-0.06157007789645733</v>
+      </c>
+      <c r="F89">
+        <v>-0.07071527491291048</v>
+      </c>
+      <c r="G89">
+        <v>0.02312019284301739</v>
+      </c>
+      <c r="H89">
+        <v>0.01564942751760511</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.05720319475714204</v>
+        <v>0.07817964744320254</v>
       </c>
       <c r="C90">
-        <v>-0.04711344792510466</v>
+        <v>0.1213375523021675</v>
       </c>
       <c r="D90">
-        <v>-0.2804421053737679</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.2715205774483387</v>
+      </c>
+      <c r="E90">
+        <v>-0.0568077598393294</v>
+      </c>
+      <c r="F90">
+        <v>-0.02839169905252532</v>
+      </c>
+      <c r="G90">
+        <v>-0.02914667592035821</v>
+      </c>
+      <c r="H90">
+        <v>-0.02390684727872553</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.08889367608892002</v>
+        <v>0.08996989995563753</v>
       </c>
       <c r="C91">
-        <v>-0.05595943805917594</v>
+        <v>0.02457312084048141</v>
       </c>
       <c r="D91">
-        <v>0.01035259691239372</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.03520984952487186</v>
+      </c>
+      <c r="E91">
+        <v>-0.005907989134512077</v>
+      </c>
+      <c r="F91">
+        <v>-0.004038419323002823</v>
+      </c>
+      <c r="G91">
+        <v>0.01386269662380618</v>
+      </c>
+      <c r="H91">
+        <v>0.09187986309849461</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.06148792145255076</v>
+        <v>0.08080969629942522</v>
       </c>
       <c r="C92">
-        <v>-0.05880799864489654</v>
+        <v>0.1442515565814496</v>
       </c>
       <c r="D92">
-        <v>-0.3333060078880153</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.3175471067892717</v>
+      </c>
+      <c r="E92">
+        <v>-0.05275918658925801</v>
+      </c>
+      <c r="F92">
+        <v>-0.0365813085163612</v>
+      </c>
+      <c r="G92">
+        <v>-0.005074813048892419</v>
+      </c>
+      <c r="H92">
+        <v>0.01871569284096545</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.05253658570507828</v>
+        <v>0.07668703239483655</v>
       </c>
       <c r="C93">
-        <v>-0.05266973856416491</v>
+        <v>0.135967466649797</v>
       </c>
       <c r="D93">
-        <v>-0.2978124693152028</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.2856777362341273</v>
+      </c>
+      <c r="E93">
+        <v>-0.02953029798370954</v>
+      </c>
+      <c r="F93">
+        <v>-0.02969569671821588</v>
+      </c>
+      <c r="G93">
+        <v>-0.01630874634205168</v>
+      </c>
+      <c r="H93">
+        <v>0.003101929597416678</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.1311890885941079</v>
+        <v>0.1277157916585722</v>
       </c>
       <c r="C94">
-        <v>-0.04517603327592187</v>
+        <v>0.003065768288757594</v>
       </c>
       <c r="D94">
-        <v>0.04137860019626668</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.04814406500181252</v>
+      </c>
+      <c r="E94">
+        <v>0.01998175967534406</v>
+      </c>
+      <c r="F94">
+        <v>-0.01856273698074039</v>
+      </c>
+      <c r="G94">
+        <v>0.02847976206256315</v>
+      </c>
+      <c r="H94">
+        <v>0.1104512883854847</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.1195376462964172</v>
+        <v>0.1292489922343443</v>
       </c>
       <c r="C95">
-        <v>-0.03418588057666926</v>
+        <v>-0.0005030529470037279</v>
       </c>
       <c r="D95">
-        <v>0.05567915146535465</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.05926932271219142</v>
+      </c>
+      <c r="E95">
+        <v>-0.00427918656567896</v>
+      </c>
+      <c r="F95">
+        <v>-0.05315818172555115</v>
+      </c>
+      <c r="G95">
+        <v>-0.03527195443580189</v>
+      </c>
+      <c r="H95">
+        <v>-0.09854967490314309</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,52 +3187,100 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0.2229479927005188</v>
+        <v>0.1944410499480184</v>
       </c>
       <c r="C97">
-        <v>-0.05686493987381515</v>
+        <v>-0.00441245858203475</v>
       </c>
       <c r="D97">
-        <v>-0.1360242683367222</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.06271331127430488</v>
+      </c>
+      <c r="E97">
+        <v>0.05880012987037215</v>
+      </c>
+      <c r="F97">
+        <v>0.9381246285768891</v>
+      </c>
+      <c r="G97">
+        <v>-0.05072288176535317</v>
+      </c>
+      <c r="H97">
+        <v>-0.02812740874079246</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.23821626932368</v>
+        <v>0.2730073735707541</v>
       </c>
       <c r="C98">
-        <v>-0.06482538035279561</v>
+        <v>0.02098332424021845</v>
       </c>
       <c r="D98">
-        <v>0.01150875355510548</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.04215465282440826</v>
+      </c>
+      <c r="E98">
+        <v>0.2032221272515103</v>
+      </c>
+      <c r="F98">
+        <v>-0.04454863271159307</v>
+      </c>
+      <c r="G98">
+        <v>0.3232891673796848</v>
+      </c>
+      <c r="H98">
+        <v>-0.1631403915799675</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>0.44084029851566</v>
+        <v>0.28312675066414</v>
       </c>
       <c r="C99">
-        <v>0.8809334891580176</v>
+        <v>-0.891328654399918</v>
       </c>
       <c r="D99">
-        <v>-0.03257414251852243</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.2999976585425808</v>
+      </c>
+      <c r="E99">
+        <v>-0.06753347404250803</v>
+      </c>
+      <c r="F99">
+        <v>-0.0745735238531335</v>
+      </c>
+      <c r="G99">
+        <v>-0.01857997937827236</v>
+      </c>
+      <c r="H99">
+        <v>0.07070105049185303</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,24 +3291,48 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.04450608605096121</v>
+        <v>0.04804932321660275</v>
       </c>
       <c r="C101">
-        <v>-0.04102050045026084</v>
+        <v>0.02932217714951708</v>
       </c>
       <c r="D101">
-        <v>0.00153294553714177</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.0166748814810152</v>
+      </c>
+      <c r="E101">
+        <v>-0.0548348839718712</v>
+      </c>
+      <c r="F101">
+        <v>-0.01475124432500053</v>
+      </c>
+      <c r="G101">
+        <v>-0.009454291233355986</v>
+      </c>
+      <c r="H101">
+        <v>0.0761928079626019</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3343,22 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
